--- a/results/mp/logistic/corona/confidence/126/desired-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="124">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,76 +40,91 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>no</t>
   </si>
   <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>risk</t>
   </si>
   <si>
     <t>cut</t>
@@ -118,25 +133,22 @@
     <t>empty</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>buying</t>
+    <t>due</t>
+  </si>
+  <si>
+    <t>or</t>
   </si>
   <si>
     <t>prices</t>
@@ -145,223 +157,235 @@
     <t>co</t>
   </si>
   <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>are</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>in</t>
+    <t>it</t>
   </si>
 </sst>
 </file>
@@ -719,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,10 +751,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -788,13 +812,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9459459459459459</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -809,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -838,13 +862,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9210526315789473</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -859,16 +883,16 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -880,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -888,13 +912,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8695652173913043</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -906,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -938,13 +962,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -956,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K6">
-        <v>0.925</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L6">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -980,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -988,13 +1012,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8493150684931506</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C7">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D7">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1006,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K7">
         <v>0.9230769230769231</v>
@@ -1038,13 +1062,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8235294117647058</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1056,31 +1080,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8">
+        <v>0.9150943396226415</v>
+      </c>
+      <c r="L8">
+        <v>97</v>
+      </c>
+      <c r="M8">
+        <v>97</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>9</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L8">
-        <v>30</v>
-      </c>
-      <c r="M8">
-        <v>30</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1088,13 +1112,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8235294117647058</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1106,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>0.8943661971830986</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1130,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1138,13 +1162,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7931034482758621</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1156,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K10">
-        <v>0.8929503916449086</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L10">
-        <v>342</v>
+        <v>128</v>
       </c>
       <c r="M10">
-        <v>342</v>
+        <v>128</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1180,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1188,13 +1212,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7692307692307693</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1209,7 +1233,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K11">
         <v>0.8888888888888888</v>
@@ -1238,13 +1262,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7666666666666667</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1256,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <v>0.8837209302325582</v>
+        <v>0.8848167539267016</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>338</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>339</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1277,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1288,13 +1312,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7307692307692307</v>
+        <v>0.775</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1306,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K13">
-        <v>0.8828125</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L13">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1330,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1338,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.725</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1356,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="K14">
-        <v>0.8723404255319149</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1380,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1388,13 +1412,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7248677248677249</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="C15">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1406,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K15">
-        <v>0.8679245283018868</v>
+        <v>0.875</v>
       </c>
       <c r="L15">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1430,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1438,13 +1462,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6802325581395349</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C16">
-        <v>351</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>351</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1456,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K16">
-        <v>0.8625</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L16">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1480,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1488,13 +1512,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1506,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K17">
-        <v>0.8620689655172413</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1530,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1538,13 +1562,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6451612903225806</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1556,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K18">
-        <v>0.8571428571428571</v>
+        <v>0.8625</v>
       </c>
       <c r="L18">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="M18">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1580,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1588,13 +1612,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6440677966101694</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1606,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K19">
-        <v>0.8235294117647058</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1630,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1638,13 +1662,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1656,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K20">
         <v>0.8214285714285714</v>
@@ -1688,13 +1712,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6111111111111112</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1706,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K21">
-        <v>0.8170731707317073</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L21">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1730,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1738,13 +1762,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6055555555555555</v>
+        <v>0.625</v>
       </c>
       <c r="C22">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1756,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K22">
-        <v>0.8148148148148148</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1780,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1788,13 +1812,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5838926174496645</v>
+        <v>0.6107382550335571</v>
       </c>
       <c r="C23">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D23">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1806,19 +1830,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K23">
-        <v>0.7948717948717948</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1830,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1838,13 +1862,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5675675675675675</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1856,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K24">
         <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1880,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1888,13 +1912,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5636363636363636</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C25">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1906,19 +1930,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K25">
-        <v>0.7857142857142857</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1938,13 +1962,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5466666666666666</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C26">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="D26">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1956,19 +1980,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K26">
-        <v>0.7777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1980,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1988,13 +2012,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5272727272727272</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2006,19 +2030,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K27">
-        <v>0.775</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2038,13 +2062,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4888888888888889</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C28">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2056,19 +2080,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K28">
-        <v>0.76</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2080,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2088,13 +2112,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4821428571428572</v>
+        <v>0.52</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2106,19 +2130,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K29">
-        <v>0.7441176470588236</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L29">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2130,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2138,13 +2162,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4007936507936508</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C30">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="D30">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2156,19 +2180,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K30">
-        <v>0.7428571428571429</v>
+        <v>0.74</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2180,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2188,13 +2212,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3875</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2206,19 +2230,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K31">
-        <v>0.7389830508474576</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L31">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2230,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2238,13 +2262,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3636363636363636</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C32">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2256,19 +2280,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K32">
-        <v>0.7280334728033473</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L32">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="M32">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2280,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2288,13 +2312,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2600536193029491</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C33">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="D33">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2306,19 +2330,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>276</v>
+        <v>55</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K33">
-        <v>0.7096774193548387</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2330,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2338,13 +2362,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1833333333333333</v>
+        <v>0.3690476190476191</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="D34">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2356,19 +2380,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K34">
-        <v>0.7037037037037037</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2380,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2388,13 +2412,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.08873720136518772</v>
+        <v>0.3375</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2406,19 +2430,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>267</v>
+        <v>53</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K35">
-        <v>0.6923076923076923</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L35">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2430,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2438,37 +2462,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.03451251078515962</v>
+        <v>0.2600536193029491</v>
       </c>
       <c r="C36">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="D36">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E36">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1119</v>
+        <v>276</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K36">
-        <v>0.6666666666666666</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2480,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2488,37 +2512,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.03259115843820587</v>
+        <v>0.2033333333333333</v>
       </c>
       <c r="C37">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D37">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="E37">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>2998</v>
+        <v>239</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K37">
-        <v>0.6595744680851063</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L37">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2530,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2538,37 +2562,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02210724365004704</v>
+        <v>0.08085106382978724</v>
       </c>
       <c r="C38">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E38">
-        <v>0.27</v>
+        <v>0.05</v>
       </c>
       <c r="F38">
-        <v>0.73</v>
+        <v>0.95</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>2079</v>
+        <v>216</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K38">
-        <v>0.6571428571428571</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L38">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M38">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2580,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2588,37 +2612,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01966955153422502</v>
+        <v>0.06575342465753424</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E39">
-        <v>0.42</v>
+        <v>0.11</v>
       </c>
       <c r="F39">
-        <v>0.5800000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1246</v>
+        <v>341</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K39">
-        <v>0.651685393258427</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L39">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="M39">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2630,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2638,37 +2662,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01738024586689275</v>
+        <v>0.03968938740293356</v>
       </c>
       <c r="C40">
+        <v>46</v>
+      </c>
+      <c r="D40">
+        <v>48</v>
+      </c>
+      <c r="E40">
+        <v>0.04</v>
+      </c>
+      <c r="F40">
+        <v>0.96</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1113</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L40">
         <v>41</v>
       </c>
-      <c r="D40">
-        <v>61</v>
-      </c>
-      <c r="E40">
-        <v>0.33</v>
-      </c>
-      <c r="F40">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>2318</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K40">
-        <v>0.6176470588235294</v>
-      </c>
-      <c r="L40">
-        <v>21</v>
-      </c>
       <c r="M40">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2680,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2688,37 +2712,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01182654402102497</v>
+        <v>0.03465025906735751</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D41">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="E41">
-        <v>0.49</v>
+        <v>0.15</v>
       </c>
       <c r="F41">
-        <v>0.51</v>
+        <v>0.85</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>2256</v>
+        <v>2981</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K41">
-        <v>0.5609756097560976</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>0.96</v>
@@ -2730,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2738,37 +2762,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.01137477936850363</v>
+        <v>0.03403565640194489</v>
       </c>
       <c r="C42">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="E42">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="F42">
-        <v>0.47</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>5041</v>
+        <v>596</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K42">
-        <v>0.547945205479452</v>
+        <v>0.546875</v>
       </c>
       <c r="L42">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M42">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2780,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2788,49 +2812,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01028517999064984</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="C43">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="E43">
-        <v>0.53</v>
+        <v>0.25</v>
       </c>
       <c r="F43">
-        <v>0.47</v>
+        <v>0.75</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>4234</v>
+        <v>846</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K43">
-        <v>0.5333333333333333</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2838,37 +2862,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.009122237989053315</v>
+        <v>0.02365863962822138</v>
       </c>
       <c r="C44">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D44">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="E44">
-        <v>0.58</v>
+        <v>0.18</v>
       </c>
       <c r="F44">
-        <v>0.42</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>4888</v>
+        <v>2311</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K44">
-        <v>0.5245901639344263</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2880,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2888,37 +2912,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.008735440931780365</v>
+        <v>0.02262016965127239</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D45">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E45">
-        <v>0.66</v>
+        <v>0.3</v>
       </c>
       <c r="F45">
-        <v>0.34</v>
+        <v>0.7</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>2383</v>
+        <v>2074</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K45">
-        <v>0.4871794871794872</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L45">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2930,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2938,375 +2962,591 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.008073817762399077</v>
+        <v>0.02209302325581395</v>
       </c>
       <c r="C46">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>26</v>
+      </c>
+      <c r="E46">
+        <v>0.27</v>
+      </c>
+      <c r="F46">
+        <v>0.73</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>841</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K46">
+        <v>0.456140350877193</v>
+      </c>
+      <c r="L46">
+        <v>26</v>
+      </c>
+      <c r="M46">
+        <v>26</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.01497137824746808</v>
+      </c>
+      <c r="C47">
+        <v>34</v>
+      </c>
+      <c r="D47">
+        <v>72</v>
+      </c>
+      <c r="E47">
+        <v>0.53</v>
+      </c>
+      <c r="F47">
+        <v>0.47</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2237</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K47">
+        <v>0.3728813559322034</v>
+      </c>
+      <c r="L47">
+        <v>22</v>
+      </c>
+      <c r="M47">
+        <v>22</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.01309596889707387</v>
+      </c>
+      <c r="C48">
+        <v>64</v>
+      </c>
+      <c r="D48">
+        <v>173</v>
+      </c>
+      <c r="E48">
+        <v>0.63</v>
+      </c>
+      <c r="F48">
+        <v>0.37</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>4823</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K48">
+        <v>0.2990654205607476</v>
+      </c>
+      <c r="L48">
+        <v>32</v>
+      </c>
+      <c r="M48">
+        <v>34</v>
+      </c>
+      <c r="N48">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O48">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.01298445799724572</v>
+      </c>
+      <c r="C49">
+        <v>66</v>
+      </c>
+      <c r="D49">
+        <v>148</v>
+      </c>
+      <c r="E49">
+        <v>0.55</v>
+      </c>
+      <c r="F49">
+        <v>0.45</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>5017</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K49">
+        <v>0.217741935483871</v>
+      </c>
+      <c r="L49">
+        <v>27</v>
+      </c>
+      <c r="M49">
+        <v>27</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.01222378937470616</v>
+      </c>
+      <c r="C50">
+        <v>26</v>
+      </c>
+      <c r="D50">
+        <v>57</v>
+      </c>
+      <c r="E50">
+        <v>0.54</v>
+      </c>
+      <c r="F50">
+        <v>0.46</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>2101</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K50">
+        <v>0.1468531468531468</v>
+      </c>
+      <c r="L50">
         <v>21</v>
       </c>
-      <c r="D46">
-        <v>93</v>
-      </c>
-      <c r="E46">
-        <v>0.77</v>
-      </c>
-      <c r="F46">
-        <v>0.23</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>2580</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K46">
-        <v>0.484375</v>
-      </c>
-      <c r="L46">
+      <c r="M50">
+        <v>21</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.01218654792594329</v>
+      </c>
+      <c r="C51">
+        <v>52</v>
+      </c>
+      <c r="D51">
+        <v>113</v>
+      </c>
+      <c r="E51">
+        <v>0.54</v>
+      </c>
+      <c r="F51">
+        <v>0.46</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>4215</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K51">
+        <v>0.1288343558282209</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>21</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.01215611004478567</v>
+      </c>
+      <c r="C52">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>0.62</v>
+      </c>
+      <c r="F52">
+        <v>0.38</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1544</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K52">
+        <v>0.1279069767441861</v>
+      </c>
+      <c r="L52">
+        <v>22</v>
+      </c>
+      <c r="M52">
+        <v>22</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.01047339757017176</v>
+      </c>
+      <c r="C53">
+        <v>25</v>
+      </c>
+      <c r="D53">
+        <v>83</v>
+      </c>
+      <c r="E53">
+        <v>0.7</v>
+      </c>
+      <c r="F53">
+        <v>0.3</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>2362</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K53">
+        <v>0.1189189189189189</v>
+      </c>
+      <c r="L53">
+        <v>22</v>
+      </c>
+      <c r="M53">
+        <v>22</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.009671179883945842</v>
+      </c>
+      <c r="C54">
+        <v>25</v>
+      </c>
+      <c r="D54">
+        <v>113</v>
+      </c>
+      <c r="E54">
+        <v>0.78</v>
+      </c>
+      <c r="F54">
+        <v>0.22</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>2560</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K54">
+        <v>0.09558823529411764</v>
+      </c>
+      <c r="L54">
+        <v>52</v>
+      </c>
+      <c r="M54">
+        <v>55</v>
+      </c>
+      <c r="N54">
+        <v>0.95</v>
+      </c>
+      <c r="O54">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.00940032414910859</v>
+      </c>
+      <c r="C55">
+        <v>29</v>
+      </c>
+      <c r="D55">
+        <v>145</v>
+      </c>
+      <c r="E55">
+        <v>0.8</v>
+      </c>
+      <c r="F55">
+        <v>0.2</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>3056</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K55">
+        <v>0.07451923076923077</v>
+      </c>
+      <c r="L55">
         <v>31</v>
       </c>
-      <c r="M46">
+      <c r="M55">
         <v>31</v>
       </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K47">
-        <v>0.4406779661016949</v>
-      </c>
-      <c r="L47">
-        <v>26</v>
-      </c>
-      <c r="M47">
-        <v>26</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K48">
-        <v>0.4385964912280702</v>
-      </c>
-      <c r="L48">
-        <v>25</v>
-      </c>
-      <c r="M48">
-        <v>25</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K49">
-        <v>0.287037037037037</v>
-      </c>
-      <c r="L49">
-        <v>31</v>
-      </c>
-      <c r="M49">
-        <v>32</v>
-      </c>
-      <c r="N49">
-        <v>0.97</v>
-      </c>
-      <c r="O49">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K50">
-        <v>0.1774193548387097</v>
-      </c>
-      <c r="L50">
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K56">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="L56">
         <v>22</v>
       </c>
-      <c r="M50">
+      <c r="M56">
         <v>22</v>
       </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K51">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="L51">
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K57">
+        <v>0.06527196652719665</v>
+      </c>
+      <c r="L57">
+        <v>78</v>
+      </c>
+      <c r="M57">
+        <v>83</v>
+      </c>
+      <c r="N57">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O57">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K58">
+        <v>0.04578313253012048</v>
+      </c>
+      <c r="L58">
+        <v>19</v>
+      </c>
+      <c r="M58">
         <v>22</v>
       </c>
-      <c r="M51">
-        <v>22</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K52">
-        <v>0.1351351351351351</v>
-      </c>
-      <c r="L52">
-        <v>25</v>
-      </c>
-      <c r="M52">
-        <v>25</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K53">
-        <v>0.08794788273615635</v>
-      </c>
-      <c r="L53">
-        <v>27</v>
-      </c>
-      <c r="M53">
-        <v>28</v>
-      </c>
-      <c r="N53">
-        <v>0.96</v>
-      </c>
-      <c r="O53">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K54">
-        <v>0.08650519031141868</v>
-      </c>
-      <c r="L54">
-        <v>25</v>
-      </c>
-      <c r="M54">
-        <v>25</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K55">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="L55">
-        <v>24</v>
-      </c>
-      <c r="M55">
-        <v>25</v>
-      </c>
-      <c r="N55">
-        <v>0.96</v>
-      </c>
-      <c r="O55">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P55" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="56" spans="10:17">
-      <c r="J56" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K56">
-        <v>0.06359832635983263</v>
-      </c>
-      <c r="L56">
-        <v>76</v>
-      </c>
-      <c r="M56">
-        <v>81</v>
-      </c>
-      <c r="N56">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O56">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P56" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K57">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="L57">
-        <v>32</v>
-      </c>
-      <c r="M57">
-        <v>35</v>
-      </c>
-      <c r="N57">
-        <v>0.91</v>
-      </c>
-      <c r="O57">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K58">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="L58">
-        <v>20</v>
-      </c>
-      <c r="M58">
-        <v>20</v>
-      </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
         <v>396</v>
       </c>
     </row>
-    <row r="59" spans="10:17">
+    <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K59">
-        <v>0.0335707019328586</v>
+        <v>0.04175152749490835</v>
       </c>
       <c r="L59">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M59">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N59">
         <v>0.85</v>
@@ -3318,125 +3558,125 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K60">
-        <v>0.03111111111111111</v>
+        <v>0.04037267080745342</v>
       </c>
       <c r="L60">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M60">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N60">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O60">
-        <v>0.03000000000000003</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="K61">
-        <v>0.02791145332050048</v>
+        <v>0.03656998738965952</v>
       </c>
       <c r="L61">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="M61">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="N61">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="O61">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K62">
-        <v>0.02714932126696833</v>
+        <v>0.03323262839879154</v>
       </c>
       <c r="L62">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="M62">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="N62">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="O62">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K63">
-        <v>0.02595228128924236</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L63">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="M63">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="N63">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O63">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>2327</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K64">
-        <v>0.02507051081165779</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="L64">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M64">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N64">
         <v>0.89</v>
@@ -3448,215 +3688,293 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>3111</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K65">
-        <v>0.01702395964691047</v>
+        <v>0.02908805031446541</v>
       </c>
       <c r="L65">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M65">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="N65">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O65">
-        <v>0.23</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>1559</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="K66">
-        <v>0.01691419141914191</v>
+        <v>0.02760351317440402</v>
       </c>
       <c r="L66">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="N66">
-        <v>0.66</v>
+        <v>0.85</v>
       </c>
       <c r="O66">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>2383</v>
+        <v>775</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="K67">
-        <v>0.01292343841785784</v>
+        <v>0.02396694214876033</v>
       </c>
       <c r="L67">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M67">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="N67">
-        <v>0.53</v>
+        <v>0.7</v>
       </c>
       <c r="O67">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>5041</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K68">
-        <v>0.0127247020803878</v>
+        <v>0.02210056772100568</v>
       </c>
       <c r="L68">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="M68">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="N68">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="O68">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>4888</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K69">
-        <v>0.01167133520074697</v>
+        <v>0.01968253968253968</v>
       </c>
       <c r="L69">
+        <v>31</v>
+      </c>
+      <c r="M69">
         <v>50</v>
       </c>
-      <c r="M69">
-        <v>94</v>
-      </c>
       <c r="N69">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
       <c r="O69">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>4234</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K70">
-        <v>0.01139351446099912</v>
+        <v>0.01670329670329671</v>
       </c>
       <c r="L70">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M70">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="N70">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="O70">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>2256</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="K71">
-        <v>0.01025641025641026</v>
+        <v>0.01608158462443617</v>
       </c>
       <c r="L71">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="M71">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="N71">
-        <v>0.63</v>
+        <v>0.55</v>
       </c>
       <c r="O71">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>2123</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K72">
-        <v>0.008554319931565441</v>
+        <v>0.01454033771106942</v>
       </c>
       <c r="L72">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M72">
+        <v>57</v>
+      </c>
+      <c r="N72">
+        <v>0.54</v>
+      </c>
+      <c r="O72">
+        <v>0.46</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K73">
+        <v>0.01426566884939195</v>
+      </c>
+      <c r="L73">
         <v>61</v>
       </c>
-      <c r="N72">
-        <v>0.33</v>
-      </c>
-      <c r="O72">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="P72" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q72">
-        <v>2318</v>
+      <c r="M73">
+        <v>113</v>
+      </c>
+      <c r="N73">
+        <v>0.54</v>
+      </c>
+      <c r="O73">
+        <v>0.46</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K74">
+        <v>0.01002386634844869</v>
+      </c>
+      <c r="L74">
+        <v>21</v>
+      </c>
+      <c r="M74">
+        <v>69</v>
+      </c>
+      <c r="N74">
+        <v>0.3</v>
+      </c>
+      <c r="O74">
+        <v>0.7</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75">
+        <v>0.006333333333333333</v>
+      </c>
+      <c r="L75">
+        <v>19</v>
+      </c>
+      <c r="M75">
+        <v>126</v>
+      </c>
+      <c r="N75">
+        <v>0.15</v>
+      </c>
+      <c r="O75">
+        <v>0.85</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2981</v>
       </c>
     </row>
   </sheetData>
